--- a/SandwichV4Pool.xlsx
+++ b/SandwichV4Pool.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thogard/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A0B9BA-3A83-E84A-A562-FF1E6C9ADBEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21027A33-2D36-5643-953E-B0943B2B6BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39800" yWindow="500" windowWidth="36760" windowHeight="21100" xr2:uid="{4700A421-27FA-F24C-9FDA-676BF3C64E28}"/>
+    <workbookView xWindow="5580" yWindow="2300" windowWidth="24660" windowHeight="16000" xr2:uid="{4700A421-27FA-F24C-9FDA-676BF3C64E28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Fee</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>MM Profits from Swap?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* If there's a #NUM or DIV/0 error it means CEX/DEX </t>
+  </si>
+  <si>
+    <t>arbitrage has no expectation of profit.</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -266,7 +275,7 @@
     <numFmt numFmtId="167" formatCode="#,##0.0000_);[Red]\(#,##0.0000\)"/>
     <numFmt numFmtId="168" formatCode="#,##0.000000_);[Red]\(#,##0.000000\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +311,14 @@
     <font>
       <i/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -349,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -379,6 +396,8 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,7 +715,7 @@
   <dimension ref="B2:R44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,7 +731,7 @@
     <col min="9" max="9" width="15.6640625" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" customWidth="1"/>
     <col min="11" max="11" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="6.83203125" customWidth="1"/>
     <col min="14" max="14" width="19.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.33203125" customWidth="1"/>
@@ -762,35 +781,35 @@
       </c>
       <c r="F6" s="1">
         <f>C9</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="I6" s="17">
         <f>F9</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="17">
         <f>IF(I31&lt;0,0,I33/I34*-1)</f>
-        <v>996.2563280119515</v>
+        <v>504.86037402058076</v>
       </c>
       <c r="N6" s="13" t="s">
         <v>47</v>
       </c>
       <c r="O6" s="20">
         <f>L26+L31</f>
-        <v>31.602924938282815</v>
+        <v>22.485653663076079</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="1">
         <f>IF(O15=0,F6,L36)</f>
-        <v>996.2483108655324</v>
+        <v>504.87075584661255</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.2">
@@ -806,35 +825,35 @@
       </c>
       <c r="F7" s="1">
         <f>F6/(1-C6)</f>
-        <v>1003.0090270812437</v>
+        <v>501.50451354062187</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I7" s="17">
         <f>IF(C11&gt;C9,C11*(1-C6),C11/(1-C6))</f>
-        <v>998.99699097291875</v>
+        <v>504.48199999999997</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="17">
         <f>IF(I31&lt;0,0,(C11-I21)*I34)</f>
-        <v>-81.000286388091411</v>
+        <v>-4484.3983919227712</v>
       </c>
       <c r="N7" s="13" t="s">
         <v>52</v>
       </c>
       <c r="O7" s="17">
         <f>O6^2</f>
-        <v>998.74486465473785</v>
+        <v>505.60462065580668</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>56</v>
       </c>
       <c r="R7" s="1">
         <f>R6/(1-C6)</f>
-        <v>999.2460490125701</v>
+        <v>506.38992562348301</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.2">
@@ -843,28 +862,28 @@
       </c>
       <c r="F8" s="1">
         <f>F6*(1-C6)</f>
-        <v>997</v>
+        <v>498.5</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="20">
         <f>I7-I6</f>
-        <v>-1.003009027081248</v>
+        <v>4.4819999999999709</v>
       </c>
       <c r="K8" s="13" t="s">
         <v>35</v>
       </c>
       <c r="L8" s="20">
         <f>IF(I31&lt;0,0,((1/C11)-(1/I21))*I33)</f>
-        <v>-8.1304980856206702E-2</v>
+        <v>-8.8821107340208574</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="R8" s="1">
         <f>R6*(1-C6)</f>
-        <v>993.25956593293586</v>
+        <v>503.35614357907269</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.2">
@@ -872,35 +891,35 @@
         <v>21</v>
       </c>
       <c r="C9" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="1">
         <f>C10</f>
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I9" s="20">
         <f>SQRT(I7)-SQRT(I6)</f>
-        <v>-1.5862943863314882E-2</v>
+        <v>9.999697348855463E-2</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="L9" s="18">
         <f>IF(I31&lt;0,0,(C11-L6)*I34)</f>
-        <v>-40.803620481364923</v>
+        <v>-2264.0126296136386</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>54</v>
       </c>
       <c r="O9" s="1">
         <f>L18+L20+L22+(-1*L29)+(-1*L34)</f>
-        <v>-118589.40700374631</v>
+        <v>754122.33758611314</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.2">
@@ -908,28 +927,28 @@
         <v>2</v>
       </c>
       <c r="C10" s="3">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I10" s="20">
         <f>(1/I7)-(1/I6)</f>
-        <v>1.0040160642571083E-6</v>
+        <v>-1.7768721183312759E-5</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="21">
         <f>IF(I31&lt;0,0,((1/C11)-(1/L6))*I33)</f>
-        <v>-4.0967490443131263E-2</v>
+        <v>-4.4743332601059809</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>55</v>
       </c>
       <c r="O10" s="1">
         <f>L19+L21+L23+(-1*L30)+(-1*L35)</f>
-        <v>119.04176460981331</v>
+        <v>-1493.1327573674407</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.2">
@@ -937,14 +956,14 @@
         <v>3</v>
       </c>
       <c r="C11" s="3">
-        <v>996</v>
+        <v>506</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I11" s="20">
         <f>(1/SQRT(I7))-(1/SQRT(I6))</f>
-        <v>1.587090519072909E-5</v>
+        <v>-1.9910355575526034E-4</v>
       </c>
       <c r="L11" s="19"/>
       <c r="N11" s="1" t="s">
@@ -952,7 +971,7 @@
       </c>
       <c r="O11" s="1">
         <f>O9/O10*-1</f>
-        <v>996.20000923583666</v>
+        <v>505.06047360163393</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.2">
@@ -962,14 +981,14 @@
       </c>
       <c r="L12" s="17">
         <f>I21</f>
-        <v>996.50884314020232</v>
+        <v>503.74270830354283</v>
       </c>
       <c r="N12" s="1" t="s">
         <v>68</v>
       </c>
       <c r="O12" s="1">
         <f>(C11-O11)*O10</f>
-        <v>-23.809452372256327</v>
+        <v>-1402.8376418118303</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.2">
@@ -985,21 +1004,21 @@
       </c>
       <c r="I13" s="17">
         <f>C7*I9</f>
-        <v>-158629.43863314882</v>
+        <v>999969.73488554626</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="L13" s="17">
         <f>L6</f>
-        <v>996.2563280119515</v>
+        <v>504.86037402058076</v>
       </c>
       <c r="N13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="O13" s="1">
         <f>O12/C11</f>
-        <v>-2.3905072662907961E-2</v>
+        <v>-2.7724064067427476</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.2">
@@ -1008,21 +1027,24 @@
       </c>
       <c r="C14" s="15">
         <f>(L7-O12)/L7</f>
-        <v>0.7060571828329143</v>
+        <v>0.68717372561309453</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="17">
         <f>I11*C7</f>
-        <v>158.7090519072909</v>
+        <v>-1991.0355575526034</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="L14" s="20">
         <f>L13-L12</f>
-        <v>-0.25251512825082045</v>
+        <v>1.1176657170379372</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.2">
@@ -1031,21 +1053,21 @@
       </c>
       <c r="I15" s="17">
         <f>IF(I13&gt;0,I13*C6,0)</f>
-        <v>0</v>
+        <v>2999.9092046566388</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>29</v>
       </c>
       <c r="L15" s="20">
         <f>SQRT(L13)-SQRT(L12)</f>
-        <v>-3.9998558752607494E-3</v>
+        <v>2.488495461500051E-2</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="O15" s="1">
         <f>L36-O7</f>
-        <v>-2.4965537892054499</v>
+        <v>-0.73386480919413088</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.2">
@@ -1054,129 +1076,135 @@
       </c>
       <c r="I16" s="20">
         <f>IF(I14&gt;0,I14*C6,0)</f>
-        <v>0.4761271557218727</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="L16" s="20">
         <f>(1/SQRT(L13))-(1/SQRT(L12))</f>
-        <v>4.0143775747181198E-6</v>
-      </c>
-    </row>
-    <row r="17" spans="8:15" x14ac:dyDescent="0.2">
+        <v>-4.9345417102046596E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I17" s="19"/>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="17">
         <f>(I13+I15)*-1</f>
-        <v>158629.43863314882</v>
+        <v>-1002969.6440902029</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="L18" s="17">
         <f>IF(L14&lt;0,0,-1*L15*C7*(1+C6))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="8:15" x14ac:dyDescent="0.2">
+        <v>-249596.09478845508</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B19" s="23" t="s">
+        <v>73</v>
+      </c>
       <c r="H19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I19" s="17">
         <f>(I14+I16)*-1</f>
-        <v>-159.18517906301278</v>
+        <v>1991.0355575526034</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="L19" s="17">
         <f>IF(L14&gt;0,0,-1*L16*C7*(1+C6))</f>
-        <v>-40.264207074422735</v>
-      </c>
-    </row>
-    <row r="20" spans="8:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B20" s="24" t="s">
+        <v>74</v>
+      </c>
       <c r="I20" s="19"/>
       <c r="K20" s="13" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="17">
         <f>L18*-1*C6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="8:15" x14ac:dyDescent="0.2">
+        <v>748.78828436536526</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="17">
         <f>I18/(I19*-1)</f>
-        <v>996.50884314020232</v>
+        <v>503.74270830354283</v>
       </c>
       <c r="K21" s="13" t="s">
         <v>42</v>
       </c>
       <c r="L21" s="20">
         <f>L19*-1*C6</f>
-        <v>0.12079262122326821</v>
-      </c>
-    </row>
-    <row r="22" spans="8:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I22" s="19"/>
       <c r="K22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="L22" s="17">
         <f>IF(L19&lt;0,-1*L15*$C$7,0)</f>
-        <v>39998.558752607496</v>
-      </c>
-    </row>
-    <row r="23" spans="8:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H23" s="1" t="s">
         <v>62</v>
       </c>
       <c r="I23" s="17">
         <f>(C11-I21)*I19</f>
-        <v>81.000286388091411</v>
+        <v>4494.3480314144699</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="L23" s="20">
         <f>IF(L18&lt;0,-1*L16*C7,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="8:15" x14ac:dyDescent="0.2">
+        <v>493.45417102046594</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H24" s="1" t="s">
         <v>63</v>
       </c>
       <c r="I24" s="17">
         <f>I23/C11</f>
-        <v>8.132558874306367E-2</v>
+        <v>8.8821107340206922</v>
       </c>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
       <c r="K25" s="1" t="s">
         <v>38</v>
       </c>
       <c r="L25" s="17">
         <f>I6+L14</f>
-        <v>999.74748487174918</v>
-      </c>
-    </row>
-    <row r="26" spans="8:15" x14ac:dyDescent="0.2">
+        <v>501.11766571703794</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H26" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I26" s="14">
-        <f>((I6-F8)/(F7-F8))*(1-(2*C6))</f>
+        <f>IF(C11&gt;C9,((I6-F8)/(F7-F8))*(1-(2*C6)),((F7-I6)/(F7-F8))*(1-(2*C6)))</f>
         <v>0.49625338007010411</v>
       </c>
       <c r="K26" s="13" t="s">
@@ -1184,18 +1212,18 @@
       </c>
       <c r="L26" s="20">
         <f>SQRT(L25)</f>
-        <v>31.61878373485845</v>
+        <v>22.385657589560285</v>
       </c>
       <c r="N26" s="8"/>
       <c r="O26" s="8"/>
     </row>
-    <row r="27" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="17">
         <f>IF(I18&gt;0,I23*I26,0)</f>
-        <v>40.196665906736804</v>
+        <v>0</v>
       </c>
       <c r="J27" s="9"/>
       <c r="K27" s="13" t="s">
@@ -1203,75 +1231,75 @@
       </c>
       <c r="L27" s="20">
         <f>1/SQRT(L25)</f>
-        <v>3.1626769972734274E-2</v>
+        <v>4.4671459661133978E-2</v>
       </c>
       <c r="N27" s="8"/>
       <c r="O27" s="8"/>
     </row>
-    <row r="28" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H28" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I28" s="20">
         <f>IF(I19&gt;0,I24*I26,0)</f>
-        <v>0</v>
+        <v>4.407777473914722</v>
       </c>
       <c r="J28" s="9"/>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I29" s="19"/>
       <c r="K29" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L29" s="17">
         <f>IF(I18&lt;0,I18,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="8:15" x14ac:dyDescent="0.2">
+        <v>-1002969.6440902029</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="I30" s="17">
         <f>I23-I27-(I28*C11)</f>
-        <v>40.803620481354606</v>
+        <v>2264.0126296136204</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>50</v>
       </c>
       <c r="L30" s="17">
         <f>IF(I19&lt;0,I19,0)</f>
-        <v>-159.18517906301278</v>
+        <v>0</v>
       </c>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
     </row>
-    <row r="31" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="H31" s="1" t="s">
         <v>65</v>
       </c>
       <c r="I31" s="20">
         <f>I24-I28-(I27*(1/C11))</f>
-        <v>4.0967490443127121E-2</v>
+        <v>4.4743332601059702</v>
       </c>
       <c r="K31" s="13" t="s">
         <v>45</v>
       </c>
       <c r="L31" s="20">
         <f>IF(L29&lt;0,-1*L29*(1-C6)/$C$7,(1/(L27+L32)-1/(L27)))</f>
-        <v>-1.5858796575635381E-2</v>
+        <v>9.9996073515793232E-2</v>
       </c>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
     </row>
-    <row r="32" spans="8:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
       <c r="K32" s="13" t="s">
         <v>46</v>
       </c>
       <c r="L32" s="20">
         <f>IF(L30&lt;0,-1*L30*(1-C6)/$C$7,((1/(L26+L31))-(1/(L26))))</f>
-        <v>1.5870762352582374E-5</v>
+        <v>-1.9865869283879067E-4</v>
       </c>
       <c r="N32" s="8"/>
       <c r="O32" s="8"/>
@@ -1282,7 +1310,7 @@
       </c>
       <c r="I33" s="17">
         <f>IF(I31&lt;0,0,I13+I15+I27)</f>
-        <v>-158589.24196724209</v>
+        <v>1002969.6440902029</v>
       </c>
       <c r="L33" s="19"/>
       <c r="N33" s="8"/>
@@ -1294,14 +1322,14 @@
       </c>
       <c r="I34" s="17">
         <f>IF(I31&lt;0,0,I14+I16+I28)</f>
-        <v>159.18517906301278</v>
+        <v>-1986.6277800786888</v>
       </c>
       <c r="K34" s="13" t="s">
         <v>48</v>
       </c>
       <c r="L34" s="17">
         <f>IF(L30&lt;0,L31*$C$7*-1,0)</f>
-        <v>158587.96575635381</v>
+        <v>0</v>
       </c>
       <c r="N34" s="8"/>
       <c r="O34" s="8"/>
@@ -1312,7 +1340,7 @@
       </c>
       <c r="L35" s="20">
         <f>IF(L29&lt;0,L32*$C$7*-1,0)</f>
-        <v>0</v>
+        <v>1986.5869283879067</v>
       </c>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
@@ -1323,7 +1351,7 @@
       </c>
       <c r="L36" s="17">
         <f>IF(L29&lt;0,L29/L35*-1,L34/L30*-1)</f>
-        <v>996.2483108655324</v>
+        <v>504.87075584661255</v>
       </c>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
